--- a/Sheet 1/Problem Sheet.xlsx
+++ b/Sheet 1/Problem Sheet.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charitra\Desktop\mentorship\Sheet 1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D5243A-B9D5-4FAB-A7EB-BD745DDB2ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -121,81 +130,88 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Outline-icons"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -203,70 +219,67 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -456,25 +469,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.13"/>
-    <col customWidth="1" min="2" max="2" width="35.75"/>
-    <col customWidth="1" min="3" max="3" width="14.38"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -493,7 +511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -501,7 +519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -509,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -518,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -526,7 +544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -534,7 +552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -542,7 +560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -550,7 +568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -558,7 +576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -567,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -576,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -584,7 +602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3">
       <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
@@ -595,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -606,7 +624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -617,7 +635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5">
       <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
@@ -628,7 +646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5">
       <c r="A18" s="12" t="s">
         <v>24</v>
       </c>
@@ -639,15 +657,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
@@ -655,16 +674,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22">
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
         <v>28</v>
       </c>
@@ -672,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5">
       <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
@@ -680,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5">
       <c r="A24" s="6" t="s">
         <v>30</v>
       </c>
@@ -688,7 +707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5">
       <c r="A25" s="6" t="s">
         <v>31</v>
       </c>
@@ -699,7 +718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5">
       <c r="A26" s="6" t="s">
         <v>33</v>
       </c>
@@ -712,32 +731,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="C4"/>
-    <hyperlink r:id="rId4" ref="C5"/>
-    <hyperlink r:id="rId5" ref="C6"/>
-    <hyperlink r:id="rId6" ref="C7"/>
-    <hyperlink r:id="rId7" ref="C8"/>
-    <hyperlink r:id="rId8" ref="C9"/>
-    <hyperlink r:id="rId9" ref="C10"/>
-    <hyperlink r:id="rId10" ref="C11"/>
-    <hyperlink r:id="rId11" ref="C12"/>
-    <hyperlink r:id="rId12" ref="C13"/>
-    <hyperlink r:id="rId13" ref="C14"/>
-    <hyperlink r:id="rId14" ref="C15"/>
-    <hyperlink r:id="rId15" ref="C16"/>
-    <hyperlink r:id="rId16" ref="C17"/>
-    <hyperlink r:id="rId17" ref="C18"/>
-    <hyperlink r:id="rId18" ref="C19"/>
-    <hyperlink r:id="rId19" ref="C20"/>
-    <hyperlink r:id="rId20" ref="C21"/>
-    <hyperlink r:id="rId21" ref="C22"/>
-    <hyperlink r:id="rId22" ref="C23"/>
-    <hyperlink r:id="rId23" ref="C24"/>
-    <hyperlink r:id="rId24" ref="C25"/>
-    <hyperlink r:id="rId25" ref="C26"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
   </hyperlinks>
-  <drawing r:id="rId26"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sheet 1/Problem Sheet.xlsx
+++ b/Sheet 1/Problem Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charitra\Desktop\mentorship\Sheet 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D5243A-B9D5-4FAB-A7EB-BD745DDB2ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38968C94-9CD1-47ED-93EC-B7895EEA4549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -492,7 +492,7 @@
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -511,7 +511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -519,7 +519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -527,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -536,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -544,7 +544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -552,15 +552,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -568,7 +569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -576,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -585,7 +586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -594,7 +595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -602,7 +603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
@@ -613,7 +614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -624,7 +625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -673,6 +674,7 @@
       <c r="C20" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">

--- a/Sheet 1/Problem Sheet.xlsx
+++ b/Sheet 1/Problem Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charitra\Desktop\mentorship\Sheet 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38968C94-9CD1-47ED-93EC-B7895EEA4549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCB59AC-B512-4B47-8F66-9B6FF9BD712B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -204,6 +204,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -238,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -261,6 +267,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,8 +583,9 @@
       <c r="C10" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" ht="12.75">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -760,5 +768,6 @@
     <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/Sheet 1/Problem Sheet.xlsx
+++ b/Sheet 1/Problem Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charitra\Desktop\mentorship\Sheet 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCB59AC-B512-4B47-8F66-9B6FF9BD712B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DA40E8-5D6E-488E-BAC4-F8D678E907AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -499,7 +499,7 @@
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -518,7 +518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -526,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="12.75">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -534,7 +534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="12.75">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="12.75">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -551,7 +551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="12.75">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -559,7 +559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="12.75">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -568,7 +568,7 @@
       </c>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="12.75">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -576,7 +576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="20.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -594,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="12.75">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -603,7 +603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="12.75">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -611,7 +611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="12.75">
       <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
@@ -621,8 +621,9 @@
       <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" ht="12.75">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -633,7 +634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="12.75">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -644,7 +645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="12.75">
       <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
@@ -655,7 +656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="12.75">
       <c r="A18" s="12" t="s">
         <v>24</v>
       </c>
@@ -666,7 +667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="12.75">
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
@@ -675,7 +676,7 @@
       </c>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="12.75">
       <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
@@ -684,7 +685,7 @@
       </c>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="12.75">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
@@ -693,7 +694,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="12.75">
       <c r="A22" s="6" t="s">
         <v>28</v>
       </c>
@@ -701,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="12.75">
       <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
@@ -709,7 +710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="12.75">
       <c r="A24" s="6" t="s">
         <v>30</v>
       </c>
@@ -717,7 +718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="12.75">
       <c r="A25" s="6" t="s">
         <v>31</v>
       </c>
@@ -728,7 +729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="12.75">
       <c r="A26" s="6" t="s">
         <v>33</v>
       </c>

--- a/Sheet 1/Problem Sheet.xlsx
+++ b/Sheet 1/Problem Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charitra\Desktop\mentorship\Sheet 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DA40E8-5D6E-488E-BAC4-F8D678E907AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E7E229-0EF4-4C47-8626-8B8DD436558B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -633,6 +633,7 @@
       <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" ht="12.75">
       <c r="A16" s="6" t="s">
